--- a/modelo_tuberculosis/f1.xlsx
+++ b/modelo_tuberculosis/f1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\Desktop\TFG\Machine-learning\modelo_tuberculosis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71DD9E1-483B-4DFB-BC36-A5FB39DDF164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AAB733-B7BF-455E-9572-9B225480F1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25785" yWindow="780" windowWidth="21555" windowHeight="14205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>TB_MODELO_560</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>CLASS_WEIGHT</t>
+  </si>
+  <si>
+    <t>º</t>
+  </si>
+  <si>
+    <t>TB_MODELO_40</t>
   </si>
 </sst>
 </file>
@@ -192,9 +198,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -205,6 +208,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -228,16 +234,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>29813</xdr:colOff>
-      <xdr:row>636</xdr:row>
-      <xdr:rowOff>156111</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>775505</xdr:colOff>
-      <xdr:row>647</xdr:row>
-      <xdr:rowOff>51087</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7402</xdr:colOff>
+      <xdr:row>621</xdr:row>
+      <xdr:rowOff>55258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1582329</xdr:colOff>
+      <xdr:row>631</xdr:row>
+      <xdr:rowOff>140734</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -260,52 +266,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2615170" y="121327718"/>
-          <a:ext cx="4855049" cy="1990476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>608859</xdr:colOff>
-      <xdr:row>619</xdr:row>
-      <xdr:rowOff>170708</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2149929</xdr:colOff>
-      <xdr:row>636</xdr:row>
-      <xdr:rowOff>189758</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE59BFB-0388-5DB5-9F1F-8466E3CFA886}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1221180" y="118103815"/>
-          <a:ext cx="7623463" cy="3257550"/>
+          <a:off x="1217637" y="118366964"/>
+          <a:ext cx="4858251" cy="1990476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -341,7 +303,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -361,59 +323,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>53912</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>168095</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2143126</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>170266</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagen 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3360AA03-E804-A400-FD16-38FD59273379}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1273112" y="1892120"/>
-          <a:ext cx="7556564" cy="3240671"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>110221</xdr:rowOff>
+      <xdr:colOff>52109</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>833719</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143839</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -429,15 +347,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3048001" y="5153025"/>
-          <a:ext cx="4057650" cy="1634221"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1262344" y="2510118"/>
+          <a:ext cx="4064934" cy="1634221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -473,7 +391,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -517,7 +435,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -537,59 +455,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>56681</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB3F0CB-5C23-F3D2-1ED3-108D3B8F68C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1295400" y="8705850"/>
-          <a:ext cx="7667625" cy="3752381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>125334</xdr:rowOff>
+      <xdr:colOff>42583</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>44264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>871818</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>102923</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -605,15 +479,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2847975" y="12468225"/>
-          <a:ext cx="4105275" cy="1582659"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1252818" y="9378764"/>
+          <a:ext cx="4112559" cy="1582659"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -649,7 +523,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -669,59 +543,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2133600</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>180462</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Imagen 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94AF628C-8873-55C3-77FC-1B6C2A719F02}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1257300" y="16097250"/>
-          <a:ext cx="7562850" cy="4104762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1209675</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>542325</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>133120</xdr:rowOff>
+      <xdr:colOff>21852</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>31937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1550855</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>155532</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -737,59 +567,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2428875" y="20221575"/>
-          <a:ext cx="4800000" cy="1838095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2162175</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>47174</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D968AA6A-8226-57B3-FD38-2B934A437699}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1228724" y="23698200"/>
-          <a:ext cx="7620001" cy="3609524"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1232087" y="16605437"/>
+          <a:ext cx="4812327" cy="1838095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -825,7 +611,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -844,16 +630,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>809021</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>66438</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>29695</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>42583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1582226</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>32821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -869,15 +655,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2667000" y="27336750"/>
-          <a:ext cx="4828571" cy="1895238"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1239930" y="24236083"/>
+          <a:ext cx="4835855" cy="1895238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -889,59 +675,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2143125</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>27890</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Imagen 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72404BD0-258A-66C7-BB3E-6F8256FC88AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1314450" y="30956250"/>
-          <a:ext cx="7515225" cy="5476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>761399</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>28339</xdr:rowOff>
+      <xdr:colOff>79562</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>103654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1613046</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>84368</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -957,15 +699,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2638425" y="36452175"/>
-          <a:ext cx="4809524" cy="1885714"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1289797" y="31726654"/>
+          <a:ext cx="4816808" cy="1885714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1001,7 +743,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1045,7 +787,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1065,59 +807,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>210</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2152650</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>104258</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Imagen 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40882306-6A48-1BCD-3F5D-05B73A21179E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1228725" y="40185975"/>
-          <a:ext cx="7610475" cy="4133333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>761396</xdr:colOff>
-      <xdr:row>242</xdr:row>
-      <xdr:rowOff>133111</xdr:rowOff>
+      <xdr:colOff>150159</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>146237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1702690</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>155523</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1133,15 +831,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2619375" y="44338875"/>
-          <a:ext cx="4828571" cy="1914286"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1360394" y="40913237"/>
+          <a:ext cx="4835855" cy="1914286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1177,7 +875,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1197,59 +895,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>22413</xdr:colOff>
+      <xdr:colOff>44824</xdr:colOff>
       <xdr:row>253</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2162736</xdr:colOff>
-      <xdr:row>274</xdr:row>
-      <xdr:rowOff>187181</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Imagen 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B20DD04-C40B-355E-886E-0E15CA1F763F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1232648" y="48263736"/>
-          <a:ext cx="7620000" cy="4142857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1199030</xdr:colOff>
-      <xdr:row>275</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>528877</xdr:colOff>
-      <xdr:row>285</xdr:row>
-      <xdr:rowOff>1444</xdr:rowOff>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1571024</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>169533</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1265,14 +919,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2409265" y="52421118"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1255059" y="48375795"/>
           <a:ext cx="4809524" cy="1895238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1309,7 +963,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1329,59 +983,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>11208</xdr:colOff>
+      <xdr:colOff>78441</xdr:colOff>
       <xdr:row>295</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>327</xdr:row>
-      <xdr:rowOff>70951</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Imagen 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACC74ADE-4392-2367-0F20-E24CF37CD4FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1221443" y="56253530"/>
-          <a:ext cx="7664822" cy="6133333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>327</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>444275</xdr:colOff>
-      <xdr:row>337</xdr:row>
-      <xdr:rowOff>89409</xdr:rowOff>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1576069</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>100616</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1397,14 +1007,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2353235" y="62405559"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1288676" y="56298354"/>
           <a:ext cx="4780952" cy="1904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1441,7 +1051,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1461,59 +1071,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>349</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2151529</xdr:colOff>
-      <xdr:row>369</xdr:row>
-      <xdr:rowOff>165361</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Imagen 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{836FA0F9-571D-A9F4-A1CE-C8937D64C3DC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1210236" y="66596559"/>
-          <a:ext cx="7631205" cy="3885714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>370</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>791658</xdr:colOff>
-      <xdr:row>380</xdr:row>
-      <xdr:rowOff>1444</xdr:rowOff>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1508835</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>135914</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1529,14 +1095,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2700618" y="70518618"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1221442" y="66820676"/>
           <a:ext cx="4780952" cy="1895238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1548,16 +1114,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>409</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>897534</xdr:colOff>
-      <xdr:row>419</xdr:row>
-      <xdr:rowOff>160008</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1637122</xdr:colOff>
+      <xdr:row>401</xdr:row>
+      <xdr:rowOff>36743</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1573,59 +1139,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2644589" y="78116206"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1187824" y="74541529"/>
           <a:ext cx="4942857" cy="1885714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>390</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2073088</xdr:colOff>
-      <xdr:row>409</xdr:row>
-      <xdr:rowOff>79671</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Imagen 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA75605-24BA-09B6-7CB6-E317D53CD2B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1266265" y="74407059"/>
-          <a:ext cx="7496735" cy="3609524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1661,7 +1183,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1705,7 +1227,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1724,60 +1246,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>430</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2162735</xdr:colOff>
-      <xdr:row>452</xdr:row>
-      <xdr:rowOff>64484</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Imagen 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41467A2A-BB81-DA9B-3DCE-6634239B57B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1243853" y="82116706"/>
-          <a:ext cx="7608794" cy="4076190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1176618</xdr:colOff>
-      <xdr:row>452</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>515989</xdr:colOff>
-      <xdr:row>462</xdr:row>
-      <xdr:rowOff>78203</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>431</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1311607</xdr:colOff>
+      <xdr:row>441</xdr:row>
+      <xdr:rowOff>145438</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1793,14 +1271,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2386853" y="86206853"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="986118" y="82251176"/>
           <a:ext cx="4819048" cy="1904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1837,7 +1315,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1857,59 +1335,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>471</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2173941</xdr:colOff>
-      <xdr:row>493</xdr:row>
-      <xdr:rowOff>29184</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Imagen 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B53DD2-24E7-6C9D-3AE0-FD693A754863}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1232647" y="89882382"/>
-          <a:ext cx="7631206" cy="4085714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1322295</xdr:colOff>
-      <xdr:row>493</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>680713</xdr:colOff>
-      <xdr:row>503</xdr:row>
-      <xdr:rowOff>38426</xdr:rowOff>
+      <xdr:colOff>67237</xdr:colOff>
+      <xdr:row>473</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1622008</xdr:colOff>
+      <xdr:row>483</xdr:row>
+      <xdr:rowOff>139279</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1925,14 +1359,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2532530" y="94006148"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1277472" y="90274589"/>
           <a:ext cx="4838095" cy="1876190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1969,7 +1403,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1989,59 +1423,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>514</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2162735</xdr:colOff>
-      <xdr:row>545</xdr:row>
-      <xdr:rowOff>27289</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Imagen 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E81BC3C5-C1BE-86AE-3226-B91B56ABD5ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1288676" y="98062677"/>
-          <a:ext cx="7563971" cy="5809524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>257735</xdr:colOff>
-      <xdr:row>545</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>983271</xdr:colOff>
-      <xdr:row>555</xdr:row>
-      <xdr:rowOff>60269</xdr:rowOff>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>515</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1711653</xdr:colOff>
+      <xdr:row>525</xdr:row>
+      <xdr:rowOff>183534</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2057,14 +1447,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2835088" y="103867324"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1367117" y="98253177"/>
           <a:ext cx="4838095" cy="1942857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2101,7 +1491,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2121,39 +1511,875 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>78443</xdr:colOff>
-      <xdr:row>565</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2162736</xdr:colOff>
-      <xdr:row>598</xdr:row>
-      <xdr:rowOff>5398</xdr:rowOff>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>568</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1585593</xdr:colOff>
+      <xdr:row>578</xdr:row>
+      <xdr:rowOff>19379</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Imagen 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B71274A-4D0E-EE23-C002-B83D2F2269A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1288676" y="108271236"/>
+          <a:ext cx="4790476" cy="1857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>573099</xdr:colOff>
+      <xdr:row>385</xdr:row>
+      <xdr:rowOff>28815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>405</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Imagen 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1658AC-AA78-4A0F-3C01-A5BF8655C8BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14502011" y="73371315"/>
+          <a:ext cx="7831312" cy="3926862"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1604641</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>42927</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Imagen 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A9FE31F-EEE3-B16F-E6FE-0C308CE7A926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1288676" y="50516117"/>
+          <a:ext cx="4809524" cy="1723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1744702</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>180762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4C82AF3-8A66-8A25-E57A-AC657F78AC49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333499" y="43434000"/>
+          <a:ext cx="4904762" cy="1704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>632</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1582229</xdr:colOff>
+      <xdr:row>642</xdr:row>
+      <xdr:rowOff>92773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5D3C29-2A4F-D6C6-A90D-B8DC2D932B97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266264" y="120519265"/>
+          <a:ext cx="4809524" cy="1885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1535179</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>101207</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F14CF9-10B4-B537-2DEB-3DE1BE6B9B03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="58270588"/>
+          <a:ext cx="4695238" cy="1647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1541339</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>13242</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{436B09EB-33D2-45C0-7F21-AC76A0405AF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1311089" y="68860147"/>
+          <a:ext cx="4723809" cy="1638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>401</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1646100</xdr:colOff>
+      <xdr:row>411</xdr:row>
+      <xdr:rowOff>83818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904C57C9-EF61-008C-B27C-637714B207A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1311088" y="76569794"/>
+          <a:ext cx="4828571" cy="1809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>443</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1599026</xdr:colOff>
+      <xdr:row>453</xdr:row>
+      <xdr:rowOff>145439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagen 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2932A51E-FD8C-8524-956C-87947319A6B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1187823" y="84537177"/>
+          <a:ext cx="4904762" cy="1904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>484</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1614734</xdr:colOff>
+      <xdr:row>494</xdr:row>
+      <xdr:rowOff>77635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE5C890-45CF-DEAD-F4A6-A829DD20EC0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1355912" y="92213206"/>
+          <a:ext cx="4752381" cy="1971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>527</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1744703</xdr:colOff>
+      <xdr:row>537</xdr:row>
+      <xdr:rowOff>28333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Imagen 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0E8A984-6C37-2E4F-1918-324BA408308A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="100393500"/>
+          <a:ext cx="4904762" cy="1933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>579</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1633212</xdr:colOff>
+      <xdr:row>589</xdr:row>
+      <xdr:rowOff>124140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagen 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{814ACCA2-ACCC-7387-7FEB-D88D48D38901}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1288676" y="110366735"/>
+          <a:ext cx="4838095" cy="1961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1299882</xdr:colOff>
+      <xdr:row>621</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>431388</xdr:colOff>
+      <xdr:row>631</xdr:row>
+      <xdr:rowOff>28333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Imagen 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B3B69BB-C126-C86C-5C92-C136EC35F6DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10174941" y="118311706"/>
+          <a:ext cx="4790476" cy="1933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>918882</xdr:colOff>
+      <xdr:row>560</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>231341</xdr:colOff>
+      <xdr:row>571</xdr:row>
+      <xdr:rowOff>99477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Imagen 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B58C2222-A1EA-00F1-7FB1-7F64FE6D45A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9793941" y="106836882"/>
+          <a:ext cx="4971429" cy="2038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>784412</xdr:colOff>
+      <xdr:row>515</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>473416</xdr:colOff>
+      <xdr:row>525</xdr:row>
+      <xdr:rowOff>168963</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Imagen 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{436F789E-889C-8B3A-2675-8E342D67CA49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9659471" y="98219558"/>
+          <a:ext cx="4742857" cy="1961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638735</xdr:colOff>
+      <xdr:row>473</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>442025</xdr:colOff>
+      <xdr:row>483</xdr:row>
+      <xdr:rowOff>35061</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="45" name="Imagen 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E32D54B9-3466-B0AA-62DB-048713BFDD90}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1288678" y="107823001"/>
-          <a:ext cx="7563970" cy="6123809"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA31BB6F-92D5-254D-A42D-A1055F7E143B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9513794" y="90151323"/>
+          <a:ext cx="4857143" cy="1895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
+      <xdr:row>431</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>319328</xdr:colOff>
+      <xdr:row>441</xdr:row>
+      <xdr:rowOff>58041</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Imagen 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D29C566-BA64-6D6D-969F-745CA0F8FC1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9457764" y="82239970"/>
+          <a:ext cx="4790476" cy="1828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>386</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>21817</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>180739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Imagen 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DF84CED-68C6-D381-772B-193EEE899705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9188824" y="73533001"/>
+          <a:ext cx="4761905" cy="1895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>941295</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>215658</xdr:colOff>
+      <xdr:row>360</xdr:row>
+      <xdr:rowOff>134233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Imagen 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749AFFDA-3175-B574-D072-A6A6B0738EEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9816354" y="66809471"/>
+          <a:ext cx="4933333" cy="1904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>17317</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>134232</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Imagen 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97DF2343-5FF9-61F5-1E75-5B1B4096DD3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9637060" y="60713470"/>
+          <a:ext cx="4914286" cy="1904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2165,39 +2391,831 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1322293</xdr:colOff>
-      <xdr:row>598</xdr:row>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1875240</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>156645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Imagen 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6964699A-8A70-C83D-B340-825E7B3A8847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1378323" y="62640883"/>
+          <a:ext cx="4990476" cy="1904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1830986</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>54133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Imagen 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E54E331A-7B6A-4052-A4CC-E4D9401EE6A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400736" y="60814323"/>
+          <a:ext cx="4923809" cy="1723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504264</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>317078</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>33948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Imagen 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB6CDC6-C7EF-C44D-F87F-4BE935B521AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9379323" y="55345853"/>
+          <a:ext cx="4866667" cy="1838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>392155</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>34493</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Imagen 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73D6935-A2A1-5116-5F69-F88D3110A2C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9435353" y="47983588"/>
+          <a:ext cx="4885714" cy="1961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>546267</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>111845</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Imagen 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6970314B-D8F6-E48E-26F2-62EEB558DA03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9222442" y="40688559"/>
+          <a:ext cx="4647619" cy="1714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>193814</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>82680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Imagen 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28FD23D7-922F-2627-60DB-2724015F014F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9256059" y="31667823"/>
+          <a:ext cx="4866667" cy="1942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>578746</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>81567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Imagen 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB6D2A4-1F0F-617E-AF15-0F9D401D74CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9121588" y="23913353"/>
+          <a:ext cx="4780952" cy="1885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1232648</xdr:colOff>
+      <xdr:row>633</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>468916</xdr:colOff>
+      <xdr:row>643</xdr:row>
+      <xdr:rowOff>116298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Imagen 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DF2D468-4AA7-B624-72E0-C6C011D6FAC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10107707" y="120676147"/>
+          <a:ext cx="4895238" cy="1942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>400</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>69980</xdr:colOff>
+      <xdr:row>411</xdr:row>
+      <xdr:rowOff>45130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Imagen 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA838AD-41F4-4958-6A1D-88AB21BF6F40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9065559" y="76312059"/>
+          <a:ext cx="4933333" cy="2028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>213975</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>61382</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Imagen 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B57E3B3-9D11-D12B-6D06-CEB064CB03BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9200030" y="34256382"/>
+          <a:ext cx="4942857" cy="2000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>175880</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>102297</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Imagen 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC202A8-0DC4-8742-1262-F94458FED2BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9200030" y="26210559"/>
+          <a:ext cx="4904762" cy="1895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>485</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>546242</xdr:colOff>
+      <xdr:row>495</xdr:row>
+      <xdr:rowOff>91659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Imagen 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68CA8404-9CDF-150D-50A4-AC69D726AC11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9637059" y="92560588"/>
+          <a:ext cx="4838095" cy="1828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>974912</xdr:colOff>
+      <xdr:row>574</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>230228</xdr:colOff>
+      <xdr:row>584</xdr:row>
+      <xdr:rowOff>178488</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Imagen 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B03BABA-09D6-E98E-1738-81B5E0988D9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9849971" y="109459059"/>
+          <a:ext cx="4914286" cy="1971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638736</xdr:colOff>
+      <xdr:row>528</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>118216</xdr:colOff>
+      <xdr:row>537</xdr:row>
+      <xdr:rowOff>70386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Imagen 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5DC4EF-8CA5-2955-F15F-A4B517F124F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9513795" y="100673648"/>
+          <a:ext cx="4533333" cy="1695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>443</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>158538</xdr:colOff>
+      <xdr:row>452</xdr:row>
+      <xdr:rowOff>110731</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Imagen 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58617139-6527-762A-C662-421A49C6DC1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9401736" y="84559588"/>
+          <a:ext cx="4685714" cy="1657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>818030</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>535606</xdr:colOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>66429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Imagen 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57BE2FDB-8FA2-6458-6F52-0F23C5588B5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9693089" y="69151500"/>
+          <a:ext cx="4771429" cy="1971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>750794</xdr:colOff>
+      <xdr:row>330</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>515989</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>145439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Imagen 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB7086A-D9AB-2126-FAF3-C34FCA4D5DA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9625853" y="63010677"/>
+          <a:ext cx="4819048" cy="1904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>437030</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>249844</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>30016</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Imagen 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B708668D-4D1E-3083-26FD-F706C496C768}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9312089" y="57542206"/>
+          <a:ext cx="4866667" cy="1923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>633092</xdr:colOff>
-      <xdr:row>607</xdr:row>
-      <xdr:rowOff>187467</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Imagen 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B71274A-4D0E-EE23-C002-B83D2F2269A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2532528" y="113986236"/>
-          <a:ext cx="4790476" cy="1857143"/>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>589408</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>6514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Imagen 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2788CFB7-E043-5A81-514D-38C2D169FEB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9256059" y="42716824"/>
+          <a:ext cx="4657143" cy="1676190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2209,39 +3227,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>270782</xdr:colOff>
-      <xdr:row>612</xdr:row>
-      <xdr:rowOff>174170</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>650</xdr:row>
-      <xdr:rowOff>30958</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Imagen 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CF42C86-E05A-89F4-FBDD-02931AD3362C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9142639" y="116760170"/>
-          <a:ext cx="10438039" cy="7109395"/>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>284029</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>128096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Imagen 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6CFCA4A-E457-6994-24ED-5D7376F8DAB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9412941" y="50258382"/>
+          <a:ext cx="4800000" cy="1685714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2253,39 +3271,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>421821</xdr:colOff>
-      <xdr:row>560</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>570308</xdr:colOff>
-      <xdr:row>602</xdr:row>
-      <xdr:rowOff>15346</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Imagen 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7417DD41-423D-42FA-30CE-08DB12EEC956}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9293678" y="106829679"/>
-          <a:ext cx="9523809" cy="7866667"/>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>401136</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>4833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Imagen 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BBC7E18-357A-D27B-6B4D-1AFA43933270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953501" y="18702619"/>
+          <a:ext cx="4771429" cy="1685714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2297,39 +3315,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>408215</xdr:colOff>
-      <xdr:row>509</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>39620</xdr:colOff>
-      <xdr:row>550</xdr:row>
-      <xdr:rowOff>177273</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Imagen 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEBA9C81-366A-04E2-2E57-C9DAB06301EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9280072" y="97114178"/>
-          <a:ext cx="9619048" cy="7838095"/>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>433070</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>160008</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Imagen 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91438ABA-1AC4-4D3F-BDFE-AA6F4DA19947}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8975912" y="16562294"/>
+          <a:ext cx="4780952" cy="1885714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2341,171 +3359,39 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>408213</xdr:colOff>
-      <xdr:row>466</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>405451</xdr:colOff>
-      <xdr:row>497</xdr:row>
-      <xdr:rowOff>167988</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Imagen 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AFB47F8-3ACE-86A3-82A0-DB7E27EDDCF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9280070" y="88922679"/>
-          <a:ext cx="11209524" cy="5923809"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>707571</xdr:colOff>
-      <xdr:row>384</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>168678</xdr:colOff>
-      <xdr:row>415</xdr:row>
-      <xdr:rowOff>153024</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Imagen 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1658AC-AA78-4A0F-3C01-A5BF8655C8BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9579428" y="73315286"/>
-          <a:ext cx="11285714" cy="5895238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>653142</xdr:colOff>
-      <xdr:row>426</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>57106</xdr:colOff>
-      <xdr:row>456</xdr:row>
-      <xdr:rowOff>50988</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Imagen 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA4909C2-C213-8022-6913-7EA9A0C4AED7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9524999" y="81166607"/>
-          <a:ext cx="11228571" cy="5752381"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>344</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>14917</xdr:colOff>
-      <xdr:row>375</xdr:row>
-      <xdr:rowOff>114917</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Imagen 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465244D1-34E5-8A97-475E-0C50A6E7AC81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9416143" y="65600036"/>
-          <a:ext cx="11295238" cy="5952381"/>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>40863</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>137596</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Imagen 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13DA1685-0C16-4194-BF8B-4F2815E7CED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9188823" y="8729382"/>
+          <a:ext cx="4780952" cy="1885714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2782,8 +3668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:R614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB368" sqref="AB368"/>
+    <sheetView tabSelected="1" topLeftCell="C610" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F244" sqref="F244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2797,27 +3683,27 @@
   <sheetData>
     <row r="3" spans="3:18" x14ac:dyDescent="0.25">
       <c r="G3" s="2"/>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="5" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
@@ -2826,123 +3712,141 @@
       <c r="F6" s="1"/>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="79" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
     </row>
     <row r="119" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
     </row>
     <row r="157" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C157" s="5" t="s">
+      <c r="C157" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
     </row>
     <row r="205" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C205" s="5" t="s">
+      <c r="C205" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
-      <c r="F205" s="5"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
     </row>
     <row r="248" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C248" s="5" t="s">
+      <c r="C248" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D248" s="5"/>
-      <c r="E248" s="5"/>
-      <c r="F248" s="5"/>
+      <c r="D248" s="4"/>
+      <c r="E248" s="4"/>
+      <c r="F248" s="4"/>
     </row>
     <row r="289" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C289" s="5" t="s">
+      <c r="C289" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D289" s="5"/>
-      <c r="E289" s="5"/>
-      <c r="F289" s="5"/>
+      <c r="D289" s="4"/>
+      <c r="E289" s="4"/>
+      <c r="F289" s="4"/>
+    </row>
+    <row r="318" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C318" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D318" s="4"/>
+      <c r="E318" s="4"/>
+      <c r="F318" s="4"/>
     </row>
     <row r="344" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C344" s="5" t="s">
+      <c r="C344" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D344" s="5"/>
-      <c r="E344" s="5"/>
-      <c r="F344" s="5"/>
+      <c r="D344" s="4"/>
+      <c r="E344" s="4"/>
+      <c r="F344" s="4"/>
     </row>
     <row r="384" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C384" s="5" t="s">
+      <c r="C384" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D384" s="5"/>
-      <c r="E384" s="5"/>
-      <c r="F384" s="5"/>
+      <c r="D384" s="4"/>
+      <c r="E384" s="4"/>
+      <c r="F384" s="4"/>
     </row>
     <row r="425" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C425" s="5" t="s">
+      <c r="C425" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D425" s="5"/>
-      <c r="E425" s="5"/>
-      <c r="F425" s="5"/>
+      <c r="D425" s="4"/>
+      <c r="E425" s="4"/>
+      <c r="F425" s="4"/>
     </row>
     <row r="466" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C466" s="5" t="s">
+      <c r="C466" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D466" s="5"/>
-      <c r="E466" s="5"/>
-      <c r="F466" s="5"/>
+      <c r="D466" s="4"/>
+      <c r="E466" s="4"/>
+      <c r="F466" s="4"/>
     </row>
     <row r="508" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C508" s="5" t="s">
+      <c r="C508" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D508" s="5"/>
-      <c r="E508" s="5"/>
-      <c r="F508" s="5"/>
+      <c r="D508" s="4"/>
+      <c r="E508" s="4"/>
+      <c r="F508" s="4"/>
     </row>
     <row r="560" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C560" s="5" t="s">
+      <c r="C560" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D560" s="5"/>
-      <c r="E560" s="5"/>
-      <c r="F560" s="5"/>
+      <c r="D560" s="4"/>
+      <c r="E560" s="4"/>
+      <c r="F560" s="4"/>
     </row>
     <row r="567" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E567" s="3"/>
     </row>
+    <row r="586" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F586" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="613" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="614" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C614" s="6" t="s">
+      <c r="C614" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D614" s="7"/>
-      <c r="E614" s="7"/>
-      <c r="F614" s="8"/>
+      <c r="D614" s="6"/>
+      <c r="E614" s="6"/>
+      <c r="F614" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="H3:R3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="C119:F119"/>
     <mergeCell ref="C289:F289"/>
     <mergeCell ref="C157:F157"/>
     <mergeCell ref="C205:F205"/>
@@ -2954,11 +3858,7 @@
     <mergeCell ref="C425:F425"/>
     <mergeCell ref="C508:F508"/>
     <mergeCell ref="C560:F560"/>
-    <mergeCell ref="H3:R3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C79:F79"/>
-    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="C318:F318"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
